--- a/biology/Histoire de la zoologie et de la botanique/Robert_Wight/Robert_Wight.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Robert_Wight/Robert_Wight.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Robert Wight est un médecin et un botaniste britannique, né le 6 juillet 1796 à Milton et mort le 26 mai 1872 à Grazeley Lodge près de Reading.
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Après l’obtention de son titre de médecin en 1818 et son service militaire en Inde (1819), il devient  chirurgien-assistant pour la Compagnie anglaise des Indes orientales à Madras, fonction qu’il conserve jusqu’en 1826[1].
-Il devient alors naturaliste à l’Institut de botanique de Madras. En 1828 et jusqu’en 1831, il devient chirurgien auprès de la garnison britannique de la ville. En 1834, il devient chirurgien de ville. Puis à partir de 1836, il s'intéresse à la culture de certaines plantes, dont le tabac et le coton. À partir de 1851 jusqu'en 1853, il dirige une plantation de coton, dans une ferme expérimentale à Coimbatore[2]. Il devient membre de la Royal Society en 1855.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Après l’obtention de son titre de médecin en 1818 et son service militaire en Inde (1819), il devient  chirurgien-assistant pour la Compagnie anglaise des Indes orientales à Madras, fonction qu’il conserve jusqu’en 1826.
+Il devient alors naturaliste à l’Institut de botanique de Madras. En 1828 et jusqu’en 1831, il devient chirurgien auprès de la garnison britannique de la ville. En 1834, il devient chirurgien de ville. Puis à partir de 1836, il s'intéresse à la culture de certaines plantes, dont le tabac et le coton. À partir de 1851 jusqu'en 1853, il dirige une plantation de coton, dans une ferme expérimentale à Coimbatore. Il devient membre de la Royal Society en 1855.
 Il est notamment l’auteur d’Illustrations of Indian botany (deux volumes, 1841-1850), Icones plantarum Indiæ orientalis (six volumes, 1840-1856) et de Spicilegium neilgherrense (deux volumes, 1846-1851).
 </t>
         </is>
